--- a/data/pca/factorExposure/factorExposure_2018-09-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-09-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03745337597244102</v>
+        <v>0.0327087088451258</v>
       </c>
       <c r="C2">
-        <v>0.04933568051456939</v>
+        <v>-0.008166485502462595</v>
       </c>
       <c r="D2">
-        <v>0.03530434629595986</v>
+        <v>-0.007811010018253739</v>
       </c>
       <c r="E2">
-        <v>-0.04573202031962666</v>
+        <v>0.01475562464335888</v>
       </c>
       <c r="F2">
-        <v>0.136488253649685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.0251741444010529</v>
+      </c>
+      <c r="G2">
+        <v>0.07878318693750924</v>
+      </c>
+      <c r="H2">
+        <v>-0.01565103595823828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.130042246259459</v>
+        <v>0.08357944945410609</v>
       </c>
       <c r="C3">
-        <v>0.02241499445271879</v>
+        <v>0.03290283291102637</v>
       </c>
       <c r="D3">
-        <v>0.03151523911852994</v>
+        <v>-0.01713560110824222</v>
       </c>
       <c r="E3">
-        <v>-0.07573078976442288</v>
+        <v>0.009303900530889871</v>
       </c>
       <c r="F3">
-        <v>0.3486573057763244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.001776959127054642</v>
+      </c>
+      <c r="G3">
+        <v>0.2653614463707523</v>
+      </c>
+      <c r="H3">
+        <v>-0.02934519856802839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.045934787981437</v>
+        <v>0.04683856241510153</v>
       </c>
       <c r="C4">
-        <v>0.03628202261402727</v>
+        <v>0.005211484501638551</v>
       </c>
       <c r="D4">
-        <v>-0.002621068606637492</v>
+        <v>-0.02139782637892157</v>
       </c>
       <c r="E4">
-        <v>-0.06775664220726202</v>
+        <v>-0.02207359968753844</v>
       </c>
       <c r="F4">
-        <v>0.06163142938580125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.06292660480071936</v>
+      </c>
+      <c r="G4">
+        <v>0.04403020992376088</v>
+      </c>
+      <c r="H4">
+        <v>-0.0259348734546747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01070247610744002</v>
+        <v>0.03123281376531452</v>
       </c>
       <c r="C6">
-        <v>0.001120502871445387</v>
+        <v>0.003588972057126766</v>
       </c>
       <c r="D6">
-        <v>0.01019856099831094</v>
+        <v>-0.03181626852639077</v>
       </c>
       <c r="E6">
-        <v>-0.008955318959076039</v>
+        <v>-0.007187222661271137</v>
       </c>
       <c r="F6">
-        <v>0.01188642822612358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.04126703258768602</v>
+      </c>
+      <c r="G6">
+        <v>0.009505736172262795</v>
+      </c>
+      <c r="H6">
+        <v>-0.04997091202035796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02350170671670616</v>
+        <v>0.02049195291706836</v>
       </c>
       <c r="C7">
-        <v>0.01966086722645975</v>
+        <v>0.001552611548875754</v>
       </c>
       <c r="D7">
-        <v>0.0270144477481879</v>
+        <v>-0.0108314040311563</v>
       </c>
       <c r="E7">
-        <v>-0.03022532262571539</v>
+        <v>-0.03620358098485102</v>
       </c>
       <c r="F7">
-        <v>0.07037035077457611</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.02583966653513558</v>
+      </c>
+      <c r="G7">
+        <v>0.03304062698070152</v>
+      </c>
+      <c r="H7">
+        <v>-0.01728258665544139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008528947015100806</v>
+        <v>-4.168476306442244e-05</v>
       </c>
       <c r="C8">
-        <v>0.00884184914892704</v>
+        <v>-2.265059915370542e-05</v>
       </c>
       <c r="D8">
-        <v>-0.004860160203944248</v>
+        <v>-0.01203268175574224</v>
       </c>
       <c r="E8">
-        <v>-0.0729373263267738</v>
+        <v>-0.01352767411269022</v>
       </c>
       <c r="F8">
-        <v>0.09016333933361782</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02800198043444714</v>
+      </c>
+      <c r="G8">
+        <v>0.05056717579079564</v>
+      </c>
+      <c r="H8">
+        <v>-0.00737876375244085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03683630408172058</v>
+        <v>0.03700714835990329</v>
       </c>
       <c r="C9">
-        <v>0.03089747204816634</v>
+        <v>0.007368717557804542</v>
       </c>
       <c r="D9">
-        <v>-0.01731749755444514</v>
+        <v>-0.0173709127452565</v>
       </c>
       <c r="E9">
-        <v>-0.06752524486920249</v>
+        <v>-0.01975543361506734</v>
       </c>
       <c r="F9">
-        <v>0.07055297512113422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.04038477708063335</v>
+      </c>
+      <c r="G9">
+        <v>0.05954118839586529</v>
+      </c>
+      <c r="H9">
+        <v>-0.02853635492335964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05802144725079648</v>
+        <v>0.07684745379893473</v>
       </c>
       <c r="C10">
-        <v>0.05040144564778856</v>
+        <v>0.04247052119450513</v>
       </c>
       <c r="D10">
-        <v>-0.02258619078134456</v>
+        <v>0.1421803288012881</v>
       </c>
       <c r="E10">
-        <v>0.1139700409542273</v>
+        <v>0.02594592786325212</v>
       </c>
       <c r="F10">
-        <v>0.05525346214214454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.09185504084114546</v>
+      </c>
+      <c r="G10">
+        <v>0.03604079666909865</v>
+      </c>
+      <c r="H10">
+        <v>-0.006437932371370267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03111759201572423</v>
+        <v>0.02203589014170305</v>
       </c>
       <c r="C11">
-        <v>0.01117962755386692</v>
+        <v>0.01330944891024247</v>
       </c>
       <c r="D11">
-        <v>0.01446263645002913</v>
+        <v>-0.02964859858040734</v>
       </c>
       <c r="E11">
-        <v>-0.03218035575777925</v>
+        <v>0.002089825431720232</v>
       </c>
       <c r="F11">
-        <v>0.03775280031818391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02628970541650708</v>
+      </c>
+      <c r="G11">
+        <v>0.03252882569125946</v>
+      </c>
+      <c r="H11">
+        <v>-0.02662096058865036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03854984101494414</v>
+        <v>0.03036728093499731</v>
       </c>
       <c r="C12">
-        <v>0.01315292300885463</v>
+        <v>0.01313331468883336</v>
       </c>
       <c r="D12">
-        <v>0.003538494151966208</v>
+        <v>-0.02833702395305415</v>
       </c>
       <c r="E12">
-        <v>-0.04687918798385982</v>
+        <v>-0.00900663679480101</v>
       </c>
       <c r="F12">
-        <v>0.02343846814103867</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.03021603979403094</v>
+      </c>
+      <c r="G12">
+        <v>0.007587135546269779</v>
+      </c>
+      <c r="H12">
+        <v>-0.01424558811211927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01831652348764868</v>
+        <v>0.02760060935581841</v>
       </c>
       <c r="C13">
-        <v>0.02306235890074593</v>
+        <v>-0.007908925654785673</v>
       </c>
       <c r="D13">
-        <v>0.03393284112946526</v>
+        <v>-0.0005670878253682008</v>
       </c>
       <c r="E13">
-        <v>-0.0200909781913645</v>
+        <v>0.01652778721372037</v>
       </c>
       <c r="F13">
-        <v>0.08077368259828248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02223992766338316</v>
+      </c>
+      <c r="G13">
+        <v>0.06094067754884604</v>
+      </c>
+      <c r="H13">
+        <v>-0.02398356882325219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01067978778298205</v>
+        <v>0.01514348974303171</v>
       </c>
       <c r="C14">
-        <v>0.02123884548334405</v>
+        <v>0.00280367769536863</v>
       </c>
       <c r="D14">
-        <v>0.002045898453181213</v>
+        <v>0.0009184499157824014</v>
       </c>
       <c r="E14">
-        <v>-0.03677285894454891</v>
+        <v>-0.008018827213192576</v>
       </c>
       <c r="F14">
-        <v>0.06492858375888894</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.02570804490085379</v>
+      </c>
+      <c r="G14">
+        <v>0.03998505913974267</v>
+      </c>
+      <c r="H14">
+        <v>0.02018867727573927</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02437069766054555</v>
+        <v>0.02176053635669245</v>
       </c>
       <c r="C16">
-        <v>0.01229325014465112</v>
+        <v>0.01321457476989196</v>
       </c>
       <c r="D16">
-        <v>0.01212175301235698</v>
+        <v>-0.02760887351708318</v>
       </c>
       <c r="E16">
-        <v>-0.03214661998748477</v>
+        <v>-0.003042508658043559</v>
       </c>
       <c r="F16">
-        <v>0.03777031076327212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.0284270473629795</v>
+      </c>
+      <c r="G16">
+        <v>0.02556959837227876</v>
+      </c>
+      <c r="H16">
+        <v>-0.02024264103487549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03758822405799216</v>
+        <v>0.03510312327522658</v>
       </c>
       <c r="C19">
-        <v>0.01326107815624539</v>
+        <v>0.008053301033688346</v>
       </c>
       <c r="D19">
-        <v>0.02113092243558019</v>
+        <v>-0.007131372799396906</v>
       </c>
       <c r="E19">
-        <v>-0.04148355708081237</v>
+        <v>0.001941233462191741</v>
       </c>
       <c r="F19">
-        <v>0.09514325026883895</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.0323263424650462</v>
+      </c>
+      <c r="G19">
+        <v>0.06511057349065068</v>
+      </c>
+      <c r="H19">
+        <v>-0.0366229646341551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.00759861885741731</v>
+        <v>0.007183560585967641</v>
       </c>
       <c r="C20">
-        <v>0.02034029964799683</v>
+        <v>-0.006347171824830252</v>
       </c>
       <c r="D20">
-        <v>0.005136137313792079</v>
+        <v>-0.0004335980360864505</v>
       </c>
       <c r="E20">
-        <v>-0.02839943054208282</v>
+        <v>-0.001911619066891851</v>
       </c>
       <c r="F20">
-        <v>0.06078873981368893</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01769889232986898</v>
+      </c>
+      <c r="G20">
+        <v>0.04821229220284798</v>
+      </c>
+      <c r="H20">
+        <v>0.0114501902420221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.002382592895717598</v>
+        <v>0.02238944988346606</v>
       </c>
       <c r="C21">
-        <v>-0.002959230646832459</v>
+        <v>-0.00175237527619898</v>
       </c>
       <c r="D21">
-        <v>0.006427227043903362</v>
+        <v>0.001428152997290941</v>
       </c>
       <c r="E21">
-        <v>-0.03169943642389385</v>
+        <v>-0.01237772426285993</v>
       </c>
       <c r="F21">
-        <v>0.08883732584776781</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.008727164434522119</v>
+      </c>
+      <c r="G21">
+        <v>0.05287882700229777</v>
+      </c>
+      <c r="H21">
+        <v>-0.008651414193126291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02594739508089597</v>
+        <v>0.02226789136068487</v>
       </c>
       <c r="C24">
-        <v>0.01176732821695833</v>
+        <v>0.008273303967871515</v>
       </c>
       <c r="D24">
-        <v>0.009123336424923504</v>
+        <v>-0.02561167528096353</v>
       </c>
       <c r="E24">
-        <v>-0.02576454904519268</v>
+        <v>-0.002539492282765721</v>
       </c>
       <c r="F24">
-        <v>0.03977133937736403</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02323671889785254</v>
+      </c>
+      <c r="G24">
+        <v>0.02713496979923874</v>
+      </c>
+      <c r="H24">
+        <v>-0.02728331271804638</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02960671730590172</v>
+        <v>0.03299871809923867</v>
       </c>
       <c r="C25">
-        <v>0.01101787405725606</v>
+        <v>0.008873349859804364</v>
       </c>
       <c r="D25">
-        <v>0.007534182075374301</v>
+        <v>-0.0198877111815089</v>
       </c>
       <c r="E25">
-        <v>-0.03226903351385059</v>
+        <v>-0.002322017314689041</v>
       </c>
       <c r="F25">
-        <v>0.03811199685442402</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.02806265476109588</v>
+      </c>
+      <c r="G25">
+        <v>0.03163021073970392</v>
+      </c>
+      <c r="H25">
+        <v>-0.02967804966341453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01677673133220204</v>
+        <v>0.01976731718105974</v>
       </c>
       <c r="C26">
-        <v>-0.0006822916016361121</v>
+        <v>-0.01480101866352344</v>
       </c>
       <c r="D26">
-        <v>0.03470564912064705</v>
+        <v>-0.005322162574466961</v>
       </c>
       <c r="E26">
-        <v>-0.03980545066868083</v>
+        <v>0.005710075140016607</v>
       </c>
       <c r="F26">
-        <v>0.05900639366666744</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.006886215107686308</v>
+      </c>
+      <c r="G26">
+        <v>0.03703685073790668</v>
+      </c>
+      <c r="H26">
+        <v>0.0009734025886236406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07198589085093998</v>
+        <v>0.03154358459275314</v>
       </c>
       <c r="C27">
-        <v>0.05268012547690265</v>
+        <v>0.01978375173841766</v>
       </c>
       <c r="D27">
-        <v>-0.002525189443700282</v>
+        <v>-0.001624285577586627</v>
       </c>
       <c r="E27">
-        <v>-0.05198771876106405</v>
+        <v>-0.003805853968687618</v>
       </c>
       <c r="F27">
-        <v>0.06095976929286057</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.02631444339589267</v>
+      </c>
+      <c r="G27">
+        <v>0.02624388127097842</v>
+      </c>
+      <c r="H27">
+        <v>0.001748297312502407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08248424006161924</v>
+        <v>0.1183971863041593</v>
       </c>
       <c r="C28">
-        <v>0.0643591241243045</v>
+        <v>0.05063912691421371</v>
       </c>
       <c r="D28">
-        <v>-0.03967334737891667</v>
+        <v>0.2078701229262502</v>
       </c>
       <c r="E28">
-        <v>0.170446339921261</v>
+        <v>0.03378146404184723</v>
       </c>
       <c r="F28">
-        <v>0.06162494598545096</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.1263996831679952</v>
+      </c>
+      <c r="G28">
+        <v>0.01852351225664186</v>
+      </c>
+      <c r="H28">
+        <v>0.005727217975629729</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01896191875619311</v>
+        <v>0.02014409309611156</v>
       </c>
       <c r="C29">
-        <v>0.02338156867599221</v>
+        <v>0.006209719241466945</v>
       </c>
       <c r="D29">
-        <v>-0.002455016011588436</v>
+        <v>-0.0009972087820842679</v>
       </c>
       <c r="E29">
-        <v>-0.05786909346995846</v>
+        <v>-0.009662108385970066</v>
       </c>
       <c r="F29">
-        <v>0.05238470351702745</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02925762064265785</v>
+      </c>
+      <c r="G29">
+        <v>0.03316139682889676</v>
+      </c>
+      <c r="H29">
+        <v>0.0201677706229007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.07791926558342507</v>
+        <v>0.05623116442113506</v>
       </c>
       <c r="C30">
-        <v>0.05686443653034206</v>
+        <v>0.008972899561364813</v>
       </c>
       <c r="D30">
-        <v>0.03430275350447352</v>
+        <v>-0.04574095402431185</v>
       </c>
       <c r="E30">
-        <v>-0.09085207117329651</v>
+        <v>0.03289450521008429</v>
       </c>
       <c r="F30">
-        <v>0.06909688718281028</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.08142255115274136</v>
+      </c>
+      <c r="G30">
+        <v>0.06351046255772505</v>
+      </c>
+      <c r="H30">
+        <v>-0.03814553852816863</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05665367822255667</v>
+        <v>0.05158254383251473</v>
       </c>
       <c r="C31">
-        <v>0.01929833854547377</v>
+        <v>0.02552392091470269</v>
       </c>
       <c r="D31">
-        <v>0.04543969531622527</v>
+        <v>-0.01692011096425889</v>
       </c>
       <c r="E31">
-        <v>-0.03533008811169551</v>
+        <v>0.008225720304320399</v>
       </c>
       <c r="F31">
-        <v>0.03831388403403676</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02312459258345879</v>
+      </c>
+      <c r="G31">
+        <v>0.01789554517125004</v>
+      </c>
+      <c r="H31">
+        <v>0.01572290711584882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01000599906712731</v>
+        <v>0.005199553735643052</v>
       </c>
       <c r="C32">
-        <v>0.02081858330858092</v>
+        <v>0.01485276951571463</v>
       </c>
       <c r="D32">
-        <v>-0.002572056136006422</v>
+        <v>0.009021817122197739</v>
       </c>
       <c r="E32">
-        <v>-0.07275760348557342</v>
+        <v>-0.0180709757457759</v>
       </c>
       <c r="F32">
-        <v>0.07332813341506582</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.04304369675046339</v>
+      </c>
+      <c r="G32">
+        <v>0.05102033999558372</v>
+      </c>
+      <c r="H32">
+        <v>-0.04212823551153563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04890243122289784</v>
+        <v>0.03912182540670617</v>
       </c>
       <c r="C33">
-        <v>0.003415741576700086</v>
+        <v>0.008688390025803022</v>
       </c>
       <c r="D33">
-        <v>0.04427268700505966</v>
+        <v>-0.02897844213281053</v>
       </c>
       <c r="E33">
-        <v>-0.06698862941884533</v>
+        <v>0.02107041035140931</v>
       </c>
       <c r="F33">
-        <v>0.09028322266882675</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01823087780749405</v>
+      </c>
+      <c r="G33">
+        <v>0.05802619512707295</v>
+      </c>
+      <c r="H33">
+        <v>-0.01589364364845337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02864915003755928</v>
+        <v>0.02434905572094816</v>
       </c>
       <c r="C34">
-        <v>0.01702480169721673</v>
+        <v>0.02242055447962534</v>
       </c>
       <c r="D34">
-        <v>0.01089338901835235</v>
+        <v>-0.0243362758383923</v>
       </c>
       <c r="E34">
-        <v>-0.0369341904206819</v>
+        <v>-0.007021729325666244</v>
       </c>
       <c r="F34">
-        <v>0.04329294167196057</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02935578775117973</v>
+      </c>
+      <c r="G34">
+        <v>0.02548245666327892</v>
+      </c>
+      <c r="H34">
+        <v>-0.02454784739181446</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0129671977718023</v>
+        <v>0.01829653454687769</v>
       </c>
       <c r="C36">
-        <v>0.01012154460707441</v>
+        <v>-0.001207168790648947</v>
       </c>
       <c r="D36">
-        <v>0.002174504921001529</v>
+        <v>0.003186479699655156</v>
       </c>
       <c r="E36">
-        <v>-0.02723442564124082</v>
+        <v>-0.002036838549557079</v>
       </c>
       <c r="F36">
-        <v>0.03065667435107749</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.006895895488698915</v>
+      </c>
+      <c r="G36">
+        <v>0.02048342171940712</v>
+      </c>
+      <c r="H36">
+        <v>0.003277996127792033</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006746070452933383</v>
+        <v>0.0136915923625212</v>
       </c>
       <c r="C38">
-        <v>-0.002221974848557004</v>
+        <v>0.01798373979377595</v>
       </c>
       <c r="D38">
-        <v>-0.01388539193123857</v>
+        <v>0.003334177076911195</v>
       </c>
       <c r="E38">
-        <v>0.007711353508319534</v>
+        <v>-0.006175610373072228</v>
       </c>
       <c r="F38">
-        <v>0.001590148003501535</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.008093155516331633</v>
+      </c>
+      <c r="G38">
+        <v>0.02475199057473202</v>
+      </c>
+      <c r="H38">
+        <v>-0.01743627801050301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0370572459815443</v>
+        <v>0.02619236211416625</v>
       </c>
       <c r="C39">
-        <v>0.02513460775109498</v>
+        <v>0.008298117220747513</v>
       </c>
       <c r="D39">
-        <v>0.02771340366473689</v>
+        <v>-0.06002953760856898</v>
       </c>
       <c r="E39">
-        <v>-0.03421325436242099</v>
+        <v>-0.0007268742863903262</v>
       </c>
       <c r="F39">
-        <v>0.0481977965989421</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05227838441537432</v>
+      </c>
+      <c r="G39">
+        <v>0.05137642075401883</v>
+      </c>
+      <c r="H39">
+        <v>-0.04878173358570031</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02723308872217285</v>
+        <v>0.02898766211100031</v>
       </c>
       <c r="C40">
-        <v>0.03625105403364728</v>
+        <v>0.006768034570654059</v>
       </c>
       <c r="D40">
-        <v>0.052999483647659</v>
+        <v>-0.01829146399539655</v>
       </c>
       <c r="E40">
-        <v>-0.04040942816738011</v>
+        <v>0.01849805339156838</v>
       </c>
       <c r="F40">
-        <v>0.07653330735930688</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03986022422211611</v>
+      </c>
+      <c r="G40">
+        <v>0.03679785388966193</v>
+      </c>
+      <c r="H40">
+        <v>-0.04415590628306176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.003332093539703845</v>
+        <v>0.006453899570000623</v>
       </c>
       <c r="C41">
-        <v>-0.01087871048669205</v>
+        <v>-0.0009108582412618742</v>
       </c>
       <c r="D41">
-        <v>0.006484706475628719</v>
+        <v>0.00645950125668939</v>
       </c>
       <c r="E41">
-        <v>-0.02041918155994788</v>
+        <v>0.0009101547426414952</v>
       </c>
       <c r="F41">
-        <v>0.01761031893704317</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.00584556161727271</v>
+      </c>
+      <c r="G41">
+        <v>0.00608042852159569</v>
+      </c>
+      <c r="H41">
+        <v>0.01825743638543091</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4050311281666125</v>
+        <v>0.2551274723395754</v>
       </c>
       <c r="C42">
-        <v>-0.8750462212773178</v>
+        <v>-0.04788693979925418</v>
       </c>
       <c r="D42">
-        <v>0.1736412587746848</v>
+        <v>-0.6320374396283361</v>
       </c>
       <c r="E42">
-        <v>0.1094774664182743</v>
+        <v>0.08086671366710986</v>
       </c>
       <c r="F42">
-        <v>-0.02260846295269778</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.7107479604835133</v>
+      </c>
+      <c r="G42">
+        <v>-0.0742891509715579</v>
+      </c>
+      <c r="H42">
+        <v>-0.02004197205462428</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01015357797162889</v>
+        <v>0.003897110588384582</v>
       </c>
       <c r="C43">
-        <v>-0.005836569290683605</v>
+        <v>-0.003743960539791284</v>
       </c>
       <c r="D43">
-        <v>0.01137305903914894</v>
+        <v>0.007658534539909233</v>
       </c>
       <c r="E43">
-        <v>-0.02122932898371268</v>
+        <v>0.005361878050430443</v>
       </c>
       <c r="F43">
-        <v>0.03422376570980963</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.009656889017173837</v>
+      </c>
+      <c r="G43">
+        <v>0.01457527015021555</v>
+      </c>
+      <c r="H43">
+        <v>0.01033855314914868</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01590575682488098</v>
+        <v>0.01156442585496273</v>
       </c>
       <c r="C44">
-        <v>0.0060903293299279</v>
+        <v>0.001491178265490557</v>
       </c>
       <c r="D44">
-        <v>0.02049665204898266</v>
+        <v>-0.02219849134129042</v>
       </c>
       <c r="E44">
-        <v>-0.04983631002084322</v>
+        <v>-0.003228134131331182</v>
       </c>
       <c r="F44">
-        <v>0.1822185268228843</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.009261100853279428</v>
+      </c>
+      <c r="G44">
+        <v>0.08461055864708988</v>
+      </c>
+      <c r="H44">
+        <v>-0.01417520205687229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01578753293924789</v>
+        <v>0.02125073409927889</v>
       </c>
       <c r="C46">
-        <v>0.02031795845661819</v>
+        <v>0.00268700169398295</v>
       </c>
       <c r="D46">
-        <v>0.01298483162576413</v>
+        <v>-0.005584653873840796</v>
       </c>
       <c r="E46">
-        <v>-0.05831007516866611</v>
+        <v>0.001519727618710784</v>
       </c>
       <c r="F46">
-        <v>0.05592958241003135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.03480726572489242</v>
+      </c>
+      <c r="G46">
+        <v>0.04953206336639002</v>
+      </c>
+      <c r="H46">
+        <v>0.01764711077589099</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0919126442597295</v>
+        <v>0.07088165970982459</v>
       </c>
       <c r="C47">
-        <v>0.03504236510523755</v>
+        <v>0.04581263109760265</v>
       </c>
       <c r="D47">
-        <v>0.02422776664092191</v>
+        <v>-0.02069021074482588</v>
       </c>
       <c r="E47">
-        <v>-0.05146944254095577</v>
+        <v>0.004024541225115721</v>
       </c>
       <c r="F47">
-        <v>0.0004797876513508418</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.03444631252730303</v>
+      </c>
+      <c r="G47">
+        <v>-0.01518327446875892</v>
+      </c>
+      <c r="H47">
+        <v>0.03158882535322531</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.008245413731199256</v>
+        <v>0.01628829065102348</v>
       </c>
       <c r="C48">
-        <v>0.005291624821679654</v>
+        <v>0.008505097867687663</v>
       </c>
       <c r="D48">
-        <v>0.01286266026985875</v>
+        <v>-0.002951654972279523</v>
       </c>
       <c r="E48">
-        <v>-0.03992120450542909</v>
+        <v>0.001142150907250089</v>
       </c>
       <c r="F48">
-        <v>0.04458023472504632</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01248773471235673</v>
+      </c>
+      <c r="G48">
+        <v>0.02650280012251499</v>
+      </c>
+      <c r="H48">
+        <v>-0.0004030701247664706</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08319404942976101</v>
+        <v>0.06382399192098533</v>
       </c>
       <c r="C50">
-        <v>0.02018575979823234</v>
+        <v>0.03844856750467166</v>
       </c>
       <c r="D50">
-        <v>0.03519311132705975</v>
+        <v>-0.03235886129080382</v>
       </c>
       <c r="E50">
-        <v>-0.0574234311142413</v>
+        <v>-0.01128137140178111</v>
       </c>
       <c r="F50">
-        <v>0.0329903529576562</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.03317644151869179</v>
+      </c>
+      <c r="G50">
+        <v>0.01849413190425016</v>
+      </c>
+      <c r="H50">
+        <v>0.0246102674730851</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.03721218866350927</v>
+        <v>0.02463136510274165</v>
       </c>
       <c r="C51">
-        <v>-0.0004598762183947005</v>
+        <v>0.005014359948344072</v>
       </c>
       <c r="D51">
-        <v>0.04393763712304074</v>
+        <v>0.005495449202531104</v>
       </c>
       <c r="E51">
-        <v>-0.007569957651071602</v>
+        <v>0.01444999263058172</v>
       </c>
       <c r="F51">
-        <v>0.1544321120842614</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01740366978237644</v>
+      </c>
+      <c r="G51">
+        <v>0.08321741110049277</v>
+      </c>
+      <c r="H51">
+        <v>-0.02310223778247173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.101105878802739</v>
+        <v>0.09063797792153105</v>
       </c>
       <c r="C53">
-        <v>0.04881404845686011</v>
+        <v>0.0577807916192548</v>
       </c>
       <c r="D53">
-        <v>0.04162305103140136</v>
+        <v>-0.04299785550443745</v>
       </c>
       <c r="E53">
-        <v>-0.06121691622682054</v>
+        <v>0.0009956822129050507</v>
       </c>
       <c r="F53">
-        <v>-0.06027771751082139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06851324757162433</v>
+      </c>
+      <c r="G53">
+        <v>-0.06041641857613109</v>
+      </c>
+      <c r="H53">
+        <v>0.03561300676605757</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02004678769428716</v>
+        <v>0.02171147044960862</v>
       </c>
       <c r="C54">
-        <v>0.03675434990426906</v>
+        <v>0.01740198411005912</v>
       </c>
       <c r="D54">
-        <v>0.001942764647002203</v>
+        <v>0.02559787742599967</v>
       </c>
       <c r="E54">
-        <v>-0.03409223347499558</v>
+        <v>-0.001211416952379429</v>
       </c>
       <c r="F54">
-        <v>0.07852058408813684</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.009784946111192676</v>
+      </c>
+      <c r="G54">
+        <v>0.04129792738985896</v>
+      </c>
+      <c r="H54">
+        <v>0.01750979340019741</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09901164015698551</v>
+        <v>0.07874361369323944</v>
       </c>
       <c r="C55">
-        <v>0.03508841569211878</v>
+        <v>0.05112166341385729</v>
       </c>
       <c r="D55">
-        <v>-0.003062967704325846</v>
+        <v>-0.04345103862654293</v>
       </c>
       <c r="E55">
-        <v>-0.06424842276567672</v>
+        <v>-0.01173362542467937</v>
       </c>
       <c r="F55">
-        <v>-0.05390344186927712</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.05874005272784392</v>
+      </c>
+      <c r="G55">
+        <v>-0.03865808646071004</v>
+      </c>
+      <c r="H55">
+        <v>0.05042365044215193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1394450450687863</v>
+        <v>0.1186478109415526</v>
       </c>
       <c r="C56">
-        <v>0.07856698250908123</v>
+        <v>0.08267143068210332</v>
       </c>
       <c r="D56">
-        <v>0.02716922312391108</v>
+        <v>-0.05600148866269018</v>
       </c>
       <c r="E56">
-        <v>-0.0782143231848938</v>
+        <v>-0.00400897448604248</v>
       </c>
       <c r="F56">
-        <v>-0.1627944005223385</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09725777205606057</v>
+      </c>
+      <c r="G56">
+        <v>-0.1040189949134069</v>
+      </c>
+      <c r="H56">
+        <v>0.02694865264906381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04263478337638502</v>
+        <v>0.04291948369797295</v>
       </c>
       <c r="C57">
-        <v>0.01381426483635427</v>
+        <v>-0.001018858173263353</v>
       </c>
       <c r="D57">
-        <v>0.02900191038792885</v>
+        <v>-0.019636825607951</v>
       </c>
       <c r="E57">
-        <v>-0.01940166137721156</v>
+        <v>0.01003506674458892</v>
       </c>
       <c r="F57">
-        <v>0.071242000740531</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02723911639158402</v>
+      </c>
+      <c r="G57">
+        <v>0.06597616921890641</v>
+      </c>
+      <c r="H57">
+        <v>-0.0107596183272977</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2037943017042383</v>
+        <v>0.1542474517004399</v>
       </c>
       <c r="C58">
-        <v>0.06573709065426292</v>
+        <v>0.08093713215253971</v>
       </c>
       <c r="D58">
-        <v>0.1132830530056394</v>
+        <v>-0.1158428174288454</v>
       </c>
       <c r="E58">
-        <v>-0.2152771695422185</v>
+        <v>0.1132856460064631</v>
       </c>
       <c r="F58">
-        <v>0.333069611807759</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.07481209508843542</v>
+      </c>
+      <c r="G58">
+        <v>0.6705374186165689</v>
+      </c>
+      <c r="H58">
+        <v>0.5648469752125047</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08034405498467985</v>
+        <v>0.1192181951754401</v>
       </c>
       <c r="C59">
-        <v>0.08903309007204833</v>
+        <v>0.05779431760152808</v>
       </c>
       <c r="D59">
-        <v>-0.03212879276023938</v>
+        <v>0.2059002943884542</v>
       </c>
       <c r="E59">
-        <v>0.1505143566608802</v>
+        <v>0.05061100388605623</v>
       </c>
       <c r="F59">
-        <v>0.05863146361488412</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.1058753664836981</v>
+      </c>
+      <c r="G59">
+        <v>0.02430441057826654</v>
+      </c>
+      <c r="H59">
+        <v>-0.02515610894639527</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1681190838071871</v>
+        <v>0.1632833873694878</v>
       </c>
       <c r="C60">
-        <v>0.07588422988100704</v>
+        <v>0.07290834051841141</v>
       </c>
       <c r="D60">
-        <v>0.06542032652719067</v>
+        <v>-0.003732925849716705</v>
       </c>
       <c r="E60">
-        <v>-0.02417560012952142</v>
+        <v>0.05634579089898206</v>
       </c>
       <c r="F60">
-        <v>0.1035743257803383</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.069898547202042</v>
+      </c>
+      <c r="G60">
+        <v>0.1333275513843787</v>
+      </c>
+      <c r="H60">
+        <v>-0.3689716906485811</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01938556572915704</v>
+        <v>0.02288265523226455</v>
       </c>
       <c r="C61">
-        <v>0.01199163942899755</v>
+        <v>0.01199518457384306</v>
       </c>
       <c r="D61">
-        <v>0.00493343727342894</v>
+        <v>-0.03208536516949201</v>
       </c>
       <c r="E61">
-        <v>-0.01859207054734848</v>
+        <v>-0.004099671595759535</v>
       </c>
       <c r="F61">
-        <v>0.0423402416402005</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03619776768104117</v>
+      </c>
+      <c r="G61">
+        <v>0.03156662324825284</v>
+      </c>
+      <c r="H61">
+        <v>-0.03703295770024577</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01557091488007679</v>
+        <v>0.01338911714718723</v>
       </c>
       <c r="C63">
-        <v>0.01490197200725998</v>
+        <v>0.00123551400489518</v>
       </c>
       <c r="D63">
-        <v>0.01321621999556151</v>
+        <v>-0.003382255175524926</v>
       </c>
       <c r="E63">
-        <v>-0.04164031785925297</v>
+        <v>-0.001853525550854714</v>
       </c>
       <c r="F63">
-        <v>0.019958590578886</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02156589021730395</v>
+      </c>
+      <c r="G63">
+        <v>0.01813523740143406</v>
+      </c>
+      <c r="H63">
+        <v>0.01064032448766578</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.02868320934405258</v>
+        <v>0.03853155714707816</v>
       </c>
       <c r="C64">
-        <v>0.02194749606283308</v>
+        <v>0.01870836457872501</v>
       </c>
       <c r="D64">
-        <v>-0.01899665704093127</v>
+        <v>-0.0274543196286056</v>
       </c>
       <c r="E64">
-        <v>-0.04534172145720038</v>
+        <v>-0.01450648613529369</v>
       </c>
       <c r="F64">
-        <v>0.02170813479608816</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.03353833154526261</v>
+      </c>
+      <c r="G64">
+        <v>0.009215810791498752</v>
+      </c>
+      <c r="H64">
+        <v>-0.02967725668860005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01086095891957191</v>
+        <v>0.03637517619684657</v>
       </c>
       <c r="C65">
-        <v>-0.0002724331267247369</v>
+        <v>0.00429157826679875</v>
       </c>
       <c r="D65">
-        <v>0.009063268308246211</v>
+        <v>-0.03550826133364888</v>
       </c>
       <c r="E65">
-        <v>-0.005151573855433063</v>
+        <v>-0.007435505674726184</v>
       </c>
       <c r="F65">
-        <v>0.007395678874900048</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04209825100638157</v>
+      </c>
+      <c r="G65">
+        <v>0.001315469199133494</v>
+      </c>
+      <c r="H65">
+        <v>-0.05836035938438072</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03365411851394432</v>
+        <v>0.0321680254645541</v>
       </c>
       <c r="C66">
-        <v>0.02906039974040888</v>
+        <v>0.01480490906926327</v>
       </c>
       <c r="D66">
-        <v>0.02128780871973729</v>
+        <v>-0.06530547581828244</v>
       </c>
       <c r="E66">
-        <v>-0.03825709970322072</v>
+        <v>0.004424722238334575</v>
       </c>
       <c r="F66">
-        <v>0.04358109325196583</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.07268153991965708</v>
+      </c>
+      <c r="G66">
+        <v>0.04249196950172929</v>
+      </c>
+      <c r="H66">
+        <v>-0.06134104530142744</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0254296246471568</v>
+        <v>0.03219775278903454</v>
       </c>
       <c r="C67">
-        <v>0.008993099815793368</v>
+        <v>0.02488705442086493</v>
       </c>
       <c r="D67">
-        <v>-0.01505848328749324</v>
+        <v>0.01185470852981441</v>
       </c>
       <c r="E67">
-        <v>0.03349320822630099</v>
+        <v>-0.001822193100044453</v>
       </c>
       <c r="F67">
-        <v>0.01122791707674292</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01006760172284447</v>
+      </c>
+      <c r="G67">
+        <v>0.0163645716147514</v>
+      </c>
+      <c r="H67">
+        <v>-0.03136049078898529</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.09141059623782481</v>
+        <v>0.1247338691074369</v>
       </c>
       <c r="C68">
-        <v>0.06861002222127757</v>
+        <v>0.03707953701205066</v>
       </c>
       <c r="D68">
-        <v>-0.04980959688823959</v>
+        <v>0.1878551949038039</v>
       </c>
       <c r="E68">
-        <v>0.1698108472812903</v>
+        <v>0.04245835938750841</v>
       </c>
       <c r="F68">
-        <v>0.01533621009412563</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.1245590576246926</v>
+      </c>
+      <c r="G68">
+        <v>0.01452426398561124</v>
+      </c>
+      <c r="H68">
+        <v>0.04646253435991888</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07030299753741122</v>
+        <v>0.05481672280355335</v>
       </c>
       <c r="C69">
-        <v>0.03474101996293393</v>
+        <v>0.04056129485217525</v>
       </c>
       <c r="D69">
-        <v>0.02368385254198939</v>
+        <v>-0.01978272295021775</v>
       </c>
       <c r="E69">
-        <v>-0.01206803595422091</v>
+        <v>0.004186288299673504</v>
       </c>
       <c r="F69">
-        <v>0.01710994127583545</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.03377402548480843</v>
+      </c>
+      <c r="G69">
+        <v>-0.00551256703500553</v>
+      </c>
+      <c r="H69">
+        <v>0.01137727541327211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1070911723673771</v>
+        <v>0.1192241579227688</v>
       </c>
       <c r="C71">
-        <v>0.07480136430429463</v>
+        <v>0.04522526427801673</v>
       </c>
       <c r="D71">
-        <v>-0.02580724440666569</v>
+        <v>0.1792502085937702</v>
       </c>
       <c r="E71">
-        <v>0.2160989620590807</v>
+        <v>0.04372013222134188</v>
       </c>
       <c r="F71">
-        <v>0.04122153517311932</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.1300471777070117</v>
+      </c>
+      <c r="G71">
+        <v>0.0184955055881396</v>
+      </c>
+      <c r="H71">
+        <v>0.02238752446028854</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1076005459212182</v>
+        <v>0.08233679766321191</v>
       </c>
       <c r="C72">
-        <v>0.09799208710574492</v>
+        <v>0.06118257751620736</v>
       </c>
       <c r="D72">
-        <v>0.01757516561148579</v>
+        <v>-0.05105559536641605</v>
       </c>
       <c r="E72">
-        <v>-0.0723846399994458</v>
+        <v>0.007153016186792448</v>
       </c>
       <c r="F72">
-        <v>0.101730756676461</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.1179232039854448</v>
+      </c>
+      <c r="G72">
+        <v>0.09490346268992524</v>
+      </c>
+      <c r="H72">
+        <v>-0.1408359391678409</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2523283670345109</v>
+        <v>0.231718908514967</v>
       </c>
       <c r="C73">
-        <v>0.1152088522175751</v>
+        <v>0.09914490970791484</v>
       </c>
       <c r="D73">
-        <v>0.06468557523785039</v>
+        <v>-0.02849837957525839</v>
       </c>
       <c r="E73">
-        <v>0.02285639308505241</v>
+        <v>0.08699274204791714</v>
       </c>
       <c r="F73">
-        <v>0.2045070220133433</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.08958499053187646</v>
+      </c>
+      <c r="G73">
+        <v>0.1989640909217713</v>
+      </c>
+      <c r="H73">
+        <v>-0.5065938938393232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1212450724833409</v>
+        <v>0.1081333855616275</v>
       </c>
       <c r="C74">
-        <v>0.04549080416770217</v>
+        <v>0.07460862628255772</v>
       </c>
       <c r="D74">
-        <v>0.03026861584751752</v>
+        <v>-0.05866237557146139</v>
       </c>
       <c r="E74">
-        <v>-0.03684782644757748</v>
+        <v>0.003225006789660703</v>
       </c>
       <c r="F74">
-        <v>-0.125104646605414</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.08131584989160472</v>
+      </c>
+      <c r="G74">
+        <v>-0.08680339938959246</v>
+      </c>
+      <c r="H74">
+        <v>0.010649961031348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2135694634523606</v>
+        <v>0.2151346678758766</v>
       </c>
       <c r="C75">
-        <v>0.1208734068041676</v>
+        <v>0.1502388461146278</v>
       </c>
       <c r="D75">
-        <v>0.06961470672276635</v>
+        <v>-0.07359959386475554</v>
       </c>
       <c r="E75">
-        <v>-0.09928874982780207</v>
+        <v>0.02333168444310522</v>
       </c>
       <c r="F75">
-        <v>-0.1885534161074586</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1553150910496238</v>
+      </c>
+      <c r="G75">
+        <v>-0.1632776336102171</v>
+      </c>
+      <c r="H75">
+        <v>0.08714696916032236</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.251087396956862</v>
+        <v>0.1979957107652199</v>
       </c>
       <c r="C76">
-        <v>0.1259199561943566</v>
+        <v>0.1427687302876744</v>
       </c>
       <c r="D76">
-        <v>0.01106640201654481</v>
+        <v>-0.0683031571272808</v>
       </c>
       <c r="E76">
-        <v>-0.06188524565632944</v>
+        <v>-0.01736812846156953</v>
       </c>
       <c r="F76">
-        <v>-0.2030092945381656</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1530261833959627</v>
+      </c>
+      <c r="G76">
+        <v>-0.1810475940354349</v>
+      </c>
+      <c r="H76">
+        <v>0.09004149984622839</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1316725480427488</v>
+        <v>0.07370726024377876</v>
       </c>
       <c r="C77">
-        <v>-0.01524700194081205</v>
+        <v>0.02481050709591386</v>
       </c>
       <c r="D77">
-        <v>0.07140606659863585</v>
+        <v>-0.07610489769946266</v>
       </c>
       <c r="E77">
-        <v>-0.1041599345995685</v>
+        <v>0.008443723291770353</v>
       </c>
       <c r="F77">
-        <v>0.1921984817896423</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01642773510297747</v>
+      </c>
+      <c r="G77">
+        <v>0.1144876946845201</v>
+      </c>
+      <c r="H77">
+        <v>0.06724556764113356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04826069615458035</v>
+        <v>0.03481814171146459</v>
       </c>
       <c r="C78">
-        <v>0.01214260015137086</v>
+        <v>0.01730125217935101</v>
       </c>
       <c r="D78">
-        <v>0.02843103418897207</v>
+        <v>-0.05051615997774549</v>
       </c>
       <c r="E78">
-        <v>-0.09999831934342225</v>
+        <v>-0.007049881553848705</v>
       </c>
       <c r="F78">
-        <v>0.03064741504054766</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.05463354997004341</v>
+      </c>
+      <c r="G78">
+        <v>0.04758654408514638</v>
+      </c>
+      <c r="H78">
+        <v>-0.02672665511534824</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2022466823013818</v>
+        <v>0.1688647263828366</v>
       </c>
       <c r="C80">
-        <v>-0.1331912523176009</v>
+        <v>0.08855393376644911</v>
       </c>
       <c r="D80">
-        <v>-0.9246295024666986</v>
+        <v>0.04081518458134618</v>
       </c>
       <c r="E80">
-        <v>-0.2510632159189457</v>
+        <v>-0.9603287392873208</v>
       </c>
       <c r="F80">
-        <v>0.04388649628565651</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.1093245353623828</v>
+      </c>
+      <c r="G80">
+        <v>0.1050034511100302</v>
+      </c>
+      <c r="H80">
+        <v>-0.008941227212452137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.149737432015313</v>
+        <v>0.1434188629547125</v>
       </c>
       <c r="C81">
-        <v>0.1038867665211019</v>
+        <v>0.1003826973444304</v>
       </c>
       <c r="D81">
-        <v>0.02272378215433171</v>
+        <v>-0.04390431623806912</v>
       </c>
       <c r="E81">
-        <v>-0.07411770255130801</v>
+        <v>0.0002503685257912517</v>
       </c>
       <c r="F81">
-        <v>-0.1783021168182278</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1106722260472459</v>
+      </c>
+      <c r="G81">
+        <v>-0.1125461536919814</v>
+      </c>
+      <c r="H81">
+        <v>0.06990039109801477</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04998074679278609</v>
+        <v>0.03720052884047807</v>
       </c>
       <c r="C83">
-        <v>-0.008986214250018417</v>
+        <v>0.0151055146431254</v>
       </c>
       <c r="D83">
-        <v>0.03779839815198901</v>
+        <v>-0.01842882072900316</v>
       </c>
       <c r="E83">
-        <v>-0.03489304426730422</v>
+        <v>0.01249905313761721</v>
       </c>
       <c r="F83">
-        <v>0.06926807316035333</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01518039888531131</v>
+      </c>
+      <c r="G83">
+        <v>0.05530701388934201</v>
+      </c>
+      <c r="H83">
+        <v>-0.01780264975511906</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.221691108472853</v>
+        <v>0.20375793666041</v>
       </c>
       <c r="C85">
-        <v>0.1029187013008301</v>
+        <v>0.1288459956598732</v>
       </c>
       <c r="D85">
-        <v>0.04106247371272036</v>
+        <v>-0.09078772672132636</v>
       </c>
       <c r="E85">
-        <v>-0.06873005924992963</v>
+        <v>0.01136557829733876</v>
       </c>
       <c r="F85">
-        <v>-0.2034286077446058</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1435092383476766</v>
+      </c>
+      <c r="G85">
+        <v>-0.1685969282633635</v>
+      </c>
+      <c r="H85">
+        <v>0.06370045368134451</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.003663390963436217</v>
+        <v>0.01295543504311641</v>
       </c>
       <c r="C86">
-        <v>-0.01140971755988265</v>
+        <v>-0.0001110910255511864</v>
       </c>
       <c r="D86">
-        <v>0.004563114782321937</v>
+        <v>-0.0108724043743001</v>
       </c>
       <c r="E86">
-        <v>-0.05566977703982805</v>
+        <v>0.007748045157703085</v>
       </c>
       <c r="F86">
-        <v>0.07068928386930005</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.002182680252268776</v>
+      </c>
+      <c r="G86">
+        <v>0.0761597174220818</v>
+      </c>
+      <c r="H86">
+        <v>-0.03755650474963819</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02789161419013663</v>
+        <v>0.02598498470368242</v>
       </c>
       <c r="C87">
-        <v>0.009712591188889704</v>
+        <v>0.008174145188207096</v>
       </c>
       <c r="D87">
-        <v>0.007930834310067671</v>
+        <v>-0.0223998044358123</v>
       </c>
       <c r="E87">
-        <v>-0.02979494109082527</v>
+        <v>-0.0006977356925610591</v>
       </c>
       <c r="F87">
-        <v>0.0632193862754676</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02943178055107577</v>
+      </c>
+      <c r="G87">
+        <v>0.08616700970218326</v>
+      </c>
+      <c r="H87">
+        <v>-0.02379737160563267</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.007839482377669467</v>
+        <v>0.03822996286156198</v>
       </c>
       <c r="C88">
-        <v>0.01870675234029401</v>
+        <v>-0.003097797274968952</v>
       </c>
       <c r="D88">
-        <v>-0.02195077390464071</v>
+        <v>0.01130708752506314</v>
       </c>
       <c r="E88">
-        <v>0.004588704002067823</v>
+        <v>-0.006315616810459589</v>
       </c>
       <c r="F88">
-        <v>0.03282449744524901</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.0113582549171901</v>
+      </c>
+      <c r="G88">
+        <v>-0.003383179889904161</v>
+      </c>
+      <c r="H88">
+        <v>-0.01233702961607006</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1274815594050789</v>
+        <v>0.1923619944968195</v>
       </c>
       <c r="C89">
-        <v>0.09723344477876855</v>
+        <v>0.06907527880236793</v>
       </c>
       <c r="D89">
-        <v>-0.03912662770507268</v>
+        <v>0.3180094329383938</v>
       </c>
       <c r="E89">
-        <v>0.3054029559544231</v>
+        <v>0.0935365578040782</v>
       </c>
       <c r="F89">
-        <v>0.08680386882597679</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.1923157774971786</v>
+      </c>
+      <c r="G89">
+        <v>0.005665497139812836</v>
+      </c>
+      <c r="H89">
+        <v>0.02062615766885487</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1151146799056036</v>
+        <v>0.1495883161572661</v>
       </c>
       <c r="C90">
-        <v>0.09959997961535746</v>
+        <v>0.05373583444508062</v>
       </c>
       <c r="D90">
-        <v>-0.08573339307137701</v>
+        <v>0.2729727700987734</v>
       </c>
       <c r="E90">
-        <v>0.2674918660460436</v>
+        <v>0.06185333888569491</v>
       </c>
       <c r="F90">
-        <v>0.05749681678017295</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.1787060043327036</v>
+      </c>
+      <c r="G90">
+        <v>-0.02955122628723694</v>
+      </c>
+      <c r="H90">
+        <v>0.03911603580707217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2835482499206922</v>
+        <v>0.2210571978821997</v>
       </c>
       <c r="C91">
-        <v>0.1024672301237719</v>
+        <v>0.1523013676882921</v>
       </c>
       <c r="D91">
-        <v>0.0635560560388474</v>
+        <v>-0.08659121234891157</v>
       </c>
       <c r="E91">
-        <v>-0.06364859717197187</v>
+        <v>0.01444121633540581</v>
       </c>
       <c r="F91">
-        <v>-0.2506943924267352</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1512996888802264</v>
+      </c>
+      <c r="G91">
+        <v>-0.2176210593831268</v>
+      </c>
+      <c r="H91">
+        <v>0.1158312882025777</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1841931785070579</v>
+        <v>0.2067953452767373</v>
       </c>
       <c r="C92">
-        <v>0.09468008864617405</v>
+        <v>0.1358622923937558</v>
       </c>
       <c r="D92">
-        <v>-0.1170226010198853</v>
+        <v>0.2462687118261335</v>
       </c>
       <c r="E92">
-        <v>0.4750701276864209</v>
+        <v>0.04936025362457271</v>
       </c>
       <c r="F92">
-        <v>0.1115369014779272</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1523356324034386</v>
+      </c>
+      <c r="G92">
+        <v>-0.04496743726730614</v>
+      </c>
+      <c r="H92">
+        <v>0.1280010843174342</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.130628921483981</v>
+        <v>0.1726879782691532</v>
       </c>
       <c r="C93">
-        <v>0.08214113889531342</v>
+        <v>0.06961055458775374</v>
       </c>
       <c r="D93">
-        <v>-0.09671292372718168</v>
+        <v>0.2901660846721793</v>
       </c>
       <c r="E93">
-        <v>0.3803175171029339</v>
+        <v>0.0800277850644168</v>
       </c>
       <c r="F93">
-        <v>0.006295085725503972</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.2179856427496926</v>
+      </c>
+      <c r="G93">
+        <v>-0.03469624298610615</v>
+      </c>
+      <c r="H93">
+        <v>-0.01709532295977808</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2565017431028931</v>
+        <v>0.2410604215528834</v>
       </c>
       <c r="C94">
-        <v>0.1352965474296454</v>
+        <v>0.1449065294339663</v>
       </c>
       <c r="D94">
-        <v>0.03881246277823721</v>
+        <v>-0.06170725963114029</v>
       </c>
       <c r="E94">
-        <v>-0.09149580517046448</v>
+        <v>0.03248576357659513</v>
       </c>
       <c r="F94">
-        <v>-0.2964674983322503</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1687960792313861</v>
+      </c>
+      <c r="G94">
+        <v>-0.2295286384836793</v>
+      </c>
+      <c r="H94">
+        <v>0.1318374927193601</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07999157450487604</v>
+        <v>0.06276436149383134</v>
       </c>
       <c r="C95">
-        <v>0.02070360638217174</v>
+        <v>0.04609494004582754</v>
       </c>
       <c r="D95">
-        <v>0.06920346324998043</v>
+        <v>-0.07092299262363465</v>
       </c>
       <c r="E95">
-        <v>-0.07102025513256288</v>
+        <v>0.06878230480133704</v>
       </c>
       <c r="F95">
-        <v>0.03306187216313879</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.03494346245771065</v>
+      </c>
+      <c r="G95">
+        <v>0.06496394793646594</v>
+      </c>
+      <c r="H95">
+        <v>-0.01018533153877741</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1907957319222291</v>
+        <v>0.1667251427939983</v>
       </c>
       <c r="C98">
-        <v>0.057843914942703</v>
+        <v>0.1046413397168564</v>
       </c>
       <c r="D98">
-        <v>0.04989005329480665</v>
+        <v>-0.01860718680324867</v>
       </c>
       <c r="E98">
-        <v>0.05339658529572638</v>
+        <v>0.05873570688687847</v>
       </c>
       <c r="F98">
-        <v>0.08950780478290789</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.03768196909427358</v>
+      </c>
+      <c r="G98">
+        <v>0.1699258235575555</v>
+      </c>
+      <c r="H98">
+        <v>-0.3660233953350653</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002582653303538374</v>
+        <v>0.01352677873921485</v>
       </c>
       <c r="C101">
-        <v>0.02764522330979139</v>
+        <v>0.002812764377557207</v>
       </c>
       <c r="D101">
-        <v>0.01239686068031162</v>
+        <v>-0.00236150457491629</v>
       </c>
       <c r="E101">
-        <v>-0.1222180681020448</v>
+        <v>-0.005215917487142791</v>
       </c>
       <c r="F101">
-        <v>0.1893390144073971</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.0369990020765548</v>
+      </c>
+      <c r="G101">
+        <v>0.09497505541202457</v>
+      </c>
+      <c r="H101">
+        <v>0.07380647175346208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09145415111651305</v>
+        <v>0.1033931772171976</v>
       </c>
       <c r="C102">
-        <v>0.03037076703160142</v>
+        <v>0.05761203199301236</v>
       </c>
       <c r="D102">
-        <v>0.0153668994655912</v>
+        <v>-0.04480114423645398</v>
       </c>
       <c r="E102">
-        <v>-0.08372462603900692</v>
+        <v>-0.001595521430708708</v>
       </c>
       <c r="F102">
-        <v>-0.1367455625119462</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.07657989348500095</v>
+      </c>
+      <c r="G102">
+        <v>-0.100731675884007</v>
+      </c>
+      <c r="H102">
+        <v>0.05492727549213759</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02350001144290771</v>
+        <v>0.02137750979280395</v>
       </c>
       <c r="C103">
-        <v>0.01117905402908082</v>
+        <v>0.01301925298675664</v>
       </c>
       <c r="D103">
-        <v>0.01088512779119357</v>
+        <v>-0.01018580677317103</v>
       </c>
       <c r="E103">
-        <v>-0.009512522085404028</v>
+        <v>-0.006063147781250646</v>
       </c>
       <c r="F103">
-        <v>-0.02608253226311866</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.0189701214536082</v>
+      </c>
+      <c r="G103">
+        <v>-0.0102696238206232</v>
+      </c>
+      <c r="H103">
+        <v>0.009078014031108087</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.4459563952056972</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.8721515715822655</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.06805591724049971</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02038392438253901</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1546407132968866</v>
+      </c>
+      <c r="G104">
+        <v>-0.04027055908923611</v>
+      </c>
+      <c r="H104">
+        <v>0.03143840194299046</v>
       </c>
     </row>
   </sheetData>
